--- a/docs/progress/week_10/功能分析表.xlsx
+++ b/docs/progress/week_10/功能分析表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\hdu2025_software_eng_thesis_mgmt\docs\progress\week_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C246848B-911F-43A4-A426-CD7003682DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD535F46-1422-4F0B-B22A-591CA18ADFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,13 @@
     <sheet name="功能项清单" sheetId="9" r:id="rId1"/>
     <sheet name="1. 学生选题" sheetId="22" r:id="rId2"/>
     <sheet name="3. 教师课题申报" sheetId="23" r:id="rId3"/>
-    <sheet name="6. 答辩组答辩过程管理" sheetId="24" r:id="rId4"/>
+    <sheet name="4. 教师选题管理" sheetId="25" r:id="rId4"/>
+    <sheet name="6. 答辩组答辩过程管理" sheetId="24" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="表_学生选题">'1. 学生选题'!$A$1</definedName>
     <definedName name="表_教师课题申报">'3. 教师课题申报'!$A$1</definedName>
+    <definedName name="表_教师选题管理">'4. 教师选题管理'!$C$1</definedName>
     <definedName name="表_答辩组答辩过程管理">'6. 答辩组答辩过程管理'!$B$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>编号</t>
   </si>
@@ -480,12 +482,130 @@
   <si>
     <t>无</t>
   </si>
+  <si>
+    <t>教师用于管理自己已申报的课题，包括查看课题基础信息、查看学生的课题申请列表、下载学生提交的申请材料，并对学生申请进行“通过 / 拒绝”的处理。</t>
+  </si>
+  <si>
+    <t>1.教师只能管理自己申报的课题，不可查看他人课题
+2.每个课题可被多个学生申请
+3.学生申请一旦被教师“通过”，其他学生申请将自动失效
+4.教师对学生申请的“通过/拒绝”操作提交后不可撤销。
+5.学生必须提交申请材料文件，否则教师无法进行审核操作。</t>
+  </si>
+  <si>
+    <t>教师已经成功申报课题，并且教科办已开放学生选题申请入口。</t>
+  </si>
+  <si>
+    <t>1.页面初始化显示教师名下所有课题卡片（课题名称、类型、面向专业、剩余名额、申请中学生数量）。
+2.展示完整课题信息：课题类别（如：论文类）、面向专业、剩余名额、课题文件下载
+3.点击“学生课题申请”进入该课题的学生申请列表页面。
+4.在学生申请列表中可查看：学号、姓名、学生专业、学生提交的申请材料文件（可下载）
+5.教师可对每个学生进行操作：通过、拒绝
+6.点击某个学生可进入“学生课题申请详情”界面，内容包括：学号、姓名、专业、申请材料下载、通过 / 拒绝按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.可折叠 / 展开课题卡片以节省空间。
+</t>
+  </si>
+  <si>
+    <t>1.〖学生申请审核〗“通过”成功，提示：“已通过该学生的选题申请”。
+2.〖学生申请审核〗“拒绝”成功，提示：“已拒绝该学生的选题申请”。
+3.〖申请审核〗失败（名额已满），提示：“该课题名额已满，无法再通过新的申请”。
+4.〖课题文件下载〗失败，提示：“课题文件不存在或已被删除”。
+5.〖学生申请文件下载〗失败，提示：“课题文件不存在或已被删除”。</t>
+  </si>
+  <si>
+    <t>1.教师不能操作不属于自己的课题。
+2.当课题剩余名额为 0 时，不允许对学生申请执行“通过”操作。
+3.已审核（通过/拒绝）的记录不可修改。
+4.学生申请材料需存在文件后才能进入审核步骤。</t>
+  </si>
+  <si>
+    <t>&lt;教师对学生申请的审核操作（通过 / 拒绝）&gt;</t>
+  </si>
+  <si>
+    <t>&lt;课题信息（课题名称、类型、面向专业、剩余名额）&gt; &lt;学生申请列表&gt; &lt;申请材料文件&gt; &lt;学生专业、姓名、学号&gt;&lt;审核结果显示&gt;</t>
+  </si>
+  <si>
+    <t>1.教师审核学生选题申请的完整性与及时性
+2.每个课题的申请数量、已通过数量、剩余名额变化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性能需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+ 普通响应类  响应时间≤3秒
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+ 1、操作权限：只有指导教师才能操作此功能项，并具有完整的操作权限
+ 2、数据权限：指导教师只能浏览或操作自己的申报表</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -577,6 +697,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -680,7 +810,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -711,83 +841,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1129,7 +1268,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1154,7 +1293,7 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="9"/>
@@ -1172,7 +1311,7 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9"/>
@@ -1181,7 +1320,7 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="9"/>
@@ -1199,7 +1338,7 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="9"/>
@@ -1283,6 +1422,7 @@
     <hyperlink ref="B2" location="表_学生选题" display="学生选题" xr:uid="{17DA5095-4D65-4699-8528-4656DF7030E9}"/>
     <hyperlink ref="B4" location="表_教师课题申报" display="教师课题申报" xr:uid="{7EC763B0-E7AD-4B8A-881F-543F4C803574}"/>
     <hyperlink ref="B7" location="表_答辩组答辩过程管理" display="答辩组答辩过程管理" xr:uid="{EA56FBFF-1865-460C-9D80-6681951686B3}"/>
+    <hyperlink ref="B5" location="表_教师选题管理" display="教师选题管理" xr:uid="{9B83E62A-97EE-4DA3-BB60-14FA991493DB}"/>
   </hyperlinks>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
@@ -1299,103 +1439,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="13">
         <v>45981</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="13">
         <v>45988</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="115.5" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="99" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1405,8 +1545,8 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="43" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1416,8 +1556,8 @@
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="150.5" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -1425,11 +1565,11 @@
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -1439,72 +1579,564 @@
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="90" customHeight="1">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890727C4-1477-433F-AD80-359ACAC52319}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" ht="57" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="98.5" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="41" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="146" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="65" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665A72C-4FD6-4594-AA07-9A0C917AC882}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="40">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="40">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" ht="57" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="105" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" ht="66" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="146" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="65" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1535,254 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890727C4-1477-433F-AD80-359ACAC52319}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="4.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="21">
-        <v>45981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21">
-        <v>45988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="57" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" ht="98.5" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="41" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8082CF-8FF2-4E0D-A89D-61E60BC40C3B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -1792,50 +2177,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4.75" style="38" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="38" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" style="38" customWidth="1"/>
+    <col min="1" max="2" width="4.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="17">
         <v>45981</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="17">
         <v>45988</v>
       </c>
     </row>
@@ -1843,163 +2228,176 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="57" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="66" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="37"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="78" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:E12"/>
@@ -2007,19 +2405,6 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/progress/week_10/功能分析表.xlsx
+++ b/docs/progress/week_10/功能分析表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29517"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29525"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\hdu2025_software_eng_thesis_mgmt\docs\progress\week_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD535F46-1422-4F0B-B22A-591CA18ADFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B06CF7-9F7C-4CBF-BB3D-B970A60FDAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="721" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能项清单" sheetId="9" r:id="rId1"/>
@@ -101,10 +101,6 @@
     <t>输出信息</t>
   </si>
   <si>
-    <t>&lt;功能项TITLE&gt;、&lt;课题面向专业&gt;、&lt;课题申报截止时间&gt;、&lt;题目名称&gt;、&lt;题目类型&gt;、&lt;毕业设计（论文）要求解决的问题及重点等&gt;、&lt;课题审核结果&gt;
-《毕业设计（论文）题目申报表》</t>
-  </si>
-  <si>
     <t>考核要素</t>
   </si>
   <si>
@@ -206,10 +202,6 @@
   </si>
   <si>
     <t>&lt;学生学号&gt;、&lt;学生姓名&gt;、&lt;所属专业&gt;、&lt;选题批次&gt;、&lt;课题编号&gt;、&lt;课题名称&gt;、&lt;课题类型&gt;、&lt;课题面向专业&gt;、&lt;指导教师姓名&gt;、&lt;毕业设计（论文）要求解决的问题及重点等&gt;、&lt;选题确认标志&gt; 等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;功能项TITLE&gt;、&lt;学生基本信息（学号、姓名、专业等）&gt;、&lt;选题批次信息&gt;、&lt;课题名称&gt;、&lt;课题类型&gt;、&lt;课题面向专业&gt;、&lt;毕业设计（论文）要求解决的问题及重点等&gt;、&lt;指导教师姓名&gt;、&lt;当前选题状态&gt;、&lt;选题申请/确认时间&gt; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,9 +456,6 @@
     <t>&lt;答辩分数&gt;、&lt;答辩意见&gt;</t>
   </si>
   <si>
-    <t>&lt;学生基本信息&gt;、&lt;提交文件名称&gt;、&lt;当前答辩状态&gt;、&lt;分数&gt;、&lt;答辩意见&gt;</t>
-  </si>
-  <si>
     <t>对学生答辩材料的审阅、评分与提交流程的规范性与完整性。</t>
   </si>
   <si>
@@ -522,9 +511,6 @@
   </si>
   <si>
     <t>&lt;教师对学生申请的审核操作（通过 / 拒绝）&gt;</t>
-  </si>
-  <si>
-    <t>&lt;课题信息（课题名称、类型、面向专业、剩余名额）&gt; &lt;学生申请列表&gt; &lt;申请材料文件&gt; &lt;学生专业、姓名、学号&gt;&lt;审核结果显示&gt;</t>
   </si>
   <si>
     <t>1.教师审核学生选题申请的完整性与及时性
@@ -599,6 +585,19 @@
  1、操作权限：只有指导教师才能操作此功能项，并具有完整的操作权限
  2、数据权限：指导教师只能浏览或操作自己的申报表</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;功能项：学生选题&gt;、&lt;学生基本信息（学号、姓名、专业等）&gt;、&lt;选题批次信息&gt;、&lt;课题名称&gt;、&lt;课题类型&gt;、&lt;课题面向专业&gt;、&lt;毕业设计（论文）要求解决的问题及重点等&gt;、&lt;指导教师姓名&gt;、&lt;当前选题状态&gt;、&lt;选题申请/确认时间&gt; </t>
+  </si>
+  <si>
+    <t>&lt;功能项：教师课题申报&gt;、&lt;课题面向专业&gt;、&lt;课题申报截止时间&gt;、&lt;题目名称&gt;、&lt;题目类型&gt;、&lt;毕业设计（论文）要求解决的问题及重点等&gt;、&lt;课题审核结果&gt;
+《毕业设计（论文）题目申报表》</t>
+  </si>
+  <si>
+    <t>&lt;功能项：答辩组答辩过程管理&gt;、&lt;学生基本信息&gt;、&lt;提交文件名称&gt;、&lt;当前答辩状态&gt;、&lt;分数&gt;、&lt;答辩意见&gt;</t>
+  </si>
+  <si>
+    <t>&lt;功能项：教师选题管理&gt; &lt;课题信息（课题名称、类型、面向专业、剩余名额）&gt; &lt;学生申请列表&gt; &lt;申请材料文件&gt; &lt;学生专业、姓名、学号&gt; &lt;审核结果显示&gt;</t>
   </si>
 </sst>
 </file>
@@ -810,7 +809,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,14 +865,26 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -881,51 +892,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1267,7 +1284,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1303,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -1312,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1321,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1330,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -1339,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -1348,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -1433,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCA8D13-213D-4B02-BAF1-0986FDD6785D}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1447,23 +1464,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="19" t="s">
-        <v>31</v>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -1473,12 +1490,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
@@ -1491,8 +1508,8 @@
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>38</v>
+      <c r="B4" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1502,8 +1519,8 @@
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>39</v>
+      <c r="B5" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1513,8 +1530,8 @@
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>40</v>
+      <c r="B6" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -1524,90 +1541,90 @@
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="99" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="43" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="150.5" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>46</v>
+      <c r="C12" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1615,36 +1632,528 @@
     </row>
     <row r="15" spans="1:10" ht="90" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890727C4-1477-433F-AD80-359ACAC52319}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" ht="57" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="98.5" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="41" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="146" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="65" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665A72C-4FD6-4594-AA07-9A0C917AC882}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" ht="57" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="105" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" ht="66" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" ht="146" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="65" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1675,468 +2184,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890727C4-1477-433F-AD80-359ACAC52319}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8082CF-8FF2-4E0D-A89D-61E60BC40C3B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="4.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="13">
-        <v>45981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="57" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="98.5" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="41" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665A72C-4FD6-4594-AA07-9A0C917AC882}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="17">
         <v>45981</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="40">
-        <v>45257</v>
+      <c r="E3" s="17">
+        <v>45988</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>75</v>
+      <c r="B4" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="57" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>12</v>
+      <c r="B6" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="66" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="C11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>82</v>
+      <c r="C12" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="C13" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>84</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:10" ht="78" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2154,257 +2416,12 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8082CF-8FF2-4E0D-A89D-61E60BC40C3B}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="4.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="17">
-        <v>45981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="17">
-        <v>45988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" ht="57" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="105" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" ht="66" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/progress/week_10/功能分析表.xlsx
+++ b/docs/progress/week_10/功能分析表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\hdu2025_software_eng_thesis_mgmt\docs\progress\week_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B06CF7-9F7C-4CBF-BB3D-B970A60FDAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF5095-D465-40D0-A2B8-E4943BD11BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="721" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能项清单" sheetId="9" r:id="rId1"/>
@@ -18,19 +18,21 @@
     <sheet name="3. 教师课题申报" sheetId="23" r:id="rId3"/>
     <sheet name="4. 教师选题管理" sheetId="25" r:id="rId4"/>
     <sheet name="6. 答辩组答辩过程管理" sheetId="24" r:id="rId5"/>
+    <sheet name="7. 教课办课题管理" sheetId="26" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="表_学生选题">'1. 学生选题'!$A$1</definedName>
     <definedName name="表_教师课题申报">'3. 教师课题申报'!$A$1</definedName>
-    <definedName name="表_教师选题管理">'4. 教师选题管理'!$C$1</definedName>
-    <definedName name="表_答辩组答辩过程管理">'6. 答辩组答辩过程管理'!$B$7</definedName>
+    <definedName name="表_教师选题管理">'4. 教师选题管理'!$A$1</definedName>
+    <definedName name="表_教科办课题管理">'7. 教课办课题管理'!$A$1</definedName>
+    <definedName name="表_答辩组答辩过程管理">'6. 答辩组答辩过程管理'!$A$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>编号</t>
   </si>
@@ -599,12 +601,87 @@
   <si>
     <t>&lt;功能项：教师选题管理&gt; &lt;课题信息（课题名称、类型、面向专业、剩余名额）&gt; &lt;学生申请列表&gt; &lt;申请材料文件&gt; &lt;学生专业、姓名、学号&gt; &lt;审核结果显示&gt;</t>
   </si>
+  <si>
+    <t>教课办课题管理</t>
+  </si>
+  <si>
+    <t>罗传杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗传杰</t>
+  </si>
+  <si>
+    <t>教科办负责申报流程的启动、课题的发布、对教师申报课题进行审核（含原审核组职责）、管理学生申报资格、汇总最终申报结果并发布。</t>
+  </si>
+  <si>
+    <t>1. 课题申报必须在教科办申报通知中规定的时间内完成申请与确认，超出时间不予受理。
+2. 每个老师可以申报多个课题
+3. 课题申报一经确认（通过教科办审核并确认），教师不得在系统中自行更换或退选，如需变更需线下办理并由教科办处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教科办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教科办先发布课题申报通知，教师开始课题申报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.页面初始化，显示所有课题的列表，并默认显示课题的基本信息（&lt;课题名称&gt;、&lt;课题类型&gt;、&lt;指导教师&gt;、&lt;审核状态&gt;）。
+2. 批量或单个查看、审核教师申报的课题，并填写&lt;审核意见&gt;。审核结果包括“通过”、“不通过”。
+3. 汇总教师对学生申报的处理结果（允许/拒绝），生成&lt;最终申报结果名单&gt;。
+4. 公布&lt;通过审核的课题清单&gt;。</t>
+  </si>
+  <si>
+    <t>1. 能够按课题名称、关键字或指导教师姓名对课题进行模糊搜索及快速定位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 〖申报申请〗操作成功完成，提示“已成功提交对课题：…… 的申报申请”
+2. 〖申报修改〗（审批状态修改）操作成功完成，提示“已成功修改申报审批状态：……”
+3. 〖申报内容修改〗操作成功完成，提示“已成功修改对课题…… 的申报申请”
+4. 〖申报确认〗操作成功完成，提示“毕业设计申报已确认，确认时间：……””
+5. 〖申报申请〗操作失败（超出截止时间），提示“申报已过截止时间，无法提交/确认！”
+6. 〖申报修改〗操作失败（超出截止时间）操作成功完成，提示“申报已过截止时间，无法提交/确认！”
+7. 〖申报内容修改〗操作失败（超出截止时间），提示“申报已过截止时间，无法提交/确认！”
+8. 〖申报确认〗操作失败（超出截止时间），提示“申报已过截止时间，无法提交/确认！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 检测系统时间与申报截止时间，当达到或超出截止时间时，不允许提交新的申报申请、确认或修改，并提示用户
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;所属专业&gt;、&lt;申报批次&gt;、&lt;课题编号&gt;、&lt;课题名称&gt;、&lt;课题类型&gt;、&lt;课题面向专业&gt;、&lt;指导教师姓名&gt;、&lt;毕业设计（论文）要求解决的问题及重点等&gt;、&lt;申报确认标志&gt; 等。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;功能项TITLE&gt;、&lt;申报批次信息&gt;、&lt;课题名称&gt;、&lt;课题类型&gt;、&lt;课题面向专业&gt;、&lt;毕业设计（论文）要求解决的问题及重点等&gt;、&lt;指导教师姓名&gt;、&lt;当前申报状态&gt;、&lt;申报申请/确认时间&gt; </t>
+  </si>
+  <si>
+    <t>是否严格按照时间窗口与数量约束完成申报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【性能需求】：
+普通响应类 响应时间 ≤ 3 秒
+【安全需求】：
+1.操作权限：只有教科办能够修改审批状态。
+2.数据权限：只有教科办能够访问相关申报课题的相关数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报课题数量统计（包括课题通过数、分专业课题通过数等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -707,6 +784,11 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -809,7 +891,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +1025,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1284,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1364,7 +1452,7 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="9"/>
@@ -1440,6 +1528,7 @@
     <hyperlink ref="B4" location="表_教师课题申报" display="教师课题申报" xr:uid="{7EC763B0-E7AD-4B8A-881F-543F4C803574}"/>
     <hyperlink ref="B7" location="表_答辩组答辩过程管理" display="答辩组答辩过程管理" xr:uid="{EA56FBFF-1865-460C-9D80-6681951686B3}"/>
     <hyperlink ref="B5" location="表_教师选题管理" display="教师选题管理" xr:uid="{9B83E62A-97EE-4DA3-BB60-14FA991493DB}"/>
+    <hyperlink ref="B8" location="表_教科办课题管理" display="教科办课题管理" xr:uid="{1CC904B5-6C1B-4080-A1AE-C215CD7946EC}"/>
   </hyperlinks>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
@@ -1943,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665A72C-4FD6-4594-AA07-9A0C917AC882}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
@@ -2188,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8082CF-8FF2-4E0D-A89D-61E60BC40C3B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
@@ -2426,4 +2515,250 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8342AB7-A215-4703-9B77-A503A5539868}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.5" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="99" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="43" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="150.65" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="90" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/docs/progress/week_10/功能分析表.xlsx
+++ b/docs/progress/week_10/功能分析表.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\hdu2025_software_eng_thesis_mgmt\docs\progress\week_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF5095-D465-40D0-A2B8-E4943BD11BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29001893-1F7E-4F39-9254-1D803A922A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能项清单" sheetId="9" r:id="rId1"/>
     <sheet name="1. 学生选题" sheetId="22" r:id="rId2"/>
-    <sheet name="3. 教师课题申报" sheetId="23" r:id="rId3"/>
-    <sheet name="4. 教师选题管理" sheetId="25" r:id="rId4"/>
-    <sheet name="6. 答辩组答辩过程管理" sheetId="24" r:id="rId5"/>
-    <sheet name="7. 教课办课题管理" sheetId="26" r:id="rId6"/>
+    <sheet name="2. 学生进展管理" sheetId="27" r:id="rId3"/>
+    <sheet name="3. 教师课题申报" sheetId="23" r:id="rId4"/>
+    <sheet name="4. 教师选题管理" sheetId="25" r:id="rId5"/>
+    <sheet name="5. 教师进展管理" sheetId="28" r:id="rId6"/>
+    <sheet name="6. 答辩组答辩过程管理" sheetId="24" r:id="rId7"/>
+    <sheet name="7. 教课办课题管理" sheetId="26" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="表_学生进展管理">'2. 学生进展管理'!$A$1</definedName>
     <definedName name="表_学生选题">'1. 学生选题'!$A$1</definedName>
     <definedName name="表_教师课题申报">'3. 教师课题申报'!$A$1</definedName>
+    <definedName name="表_教师进展管理">'5. 教师进展管理'!$A$1</definedName>
     <definedName name="表_教师选题管理">'4. 教师选题管理'!$A$1</definedName>
     <definedName name="表_教科办课题管理">'7. 教课办课题管理'!$A$1</definedName>
     <definedName name="表_答辩组答辩过程管理">'6. 答辩组答辩过程管理'!$A$1</definedName>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="128">
   <si>
     <t>编号</t>
   </si>
@@ -147,15 +151,6 @@
   </si>
   <si>
     <t>学生在教科办发布毕业设计（论文）选题通知后，登录系统浏览已发布课题信息，结合自身专业与兴趣选择合适课题，提交选题申请，并在指导教师/教科办审核后完成选题确认。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 学生选题必须在教科办选题通知中规定的时间内完成申请与确认，超出时间不予受理
-2. 每位学生在同一毕业设计批次内最终只能确认 1 个毕业设计（论文）课题
-3. 学生选题一经确认（通过指导教师或教科办审核并确认），学生不得在系统中自行更换或退选，如需变更需线下办理并由教科办处理
-4. 已达到选题人数上限的课题（名额已满）不能再被其他学生选择
-5. 处于“未发布”“已关闭”“审批退回”等状态的课题不能进入学生选题范围
-6. 教科办可以根据实际情况组织二次补选，补选阶段仅允许尚未确认课题或选题被退回的学生参与，且只能选择当前仍未满额且允许选题的课题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,6 +670,147 @@
   <si>
     <t>申报课题数量统计（包括课题通过数、分专业课题通过数等）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 学生选题必须在教科办选题通知中规定的时间内完成申请与确认，超出时间不予受理
+2. 每位学生在同一毕业设计批次内最终只能确认 1 个毕业设计（论文）课题
+3. 学生选题一经确认（通过指导教师或教科办审核并确认），学生不得在系统中自行更换或退选，如需变更需线下办理并由教科办处理
+4. 已达到选题人数上限的课题（名额已满）不能再被其他学生选择
+5. 处于“未发布”“已关闭”“审批退回”等状态的课题不能进入学生选题范围
+6. 教科办可以根据实际情况组织二次补选，补选阶段仅允许尚未确认课题或选题被退回的学生参与，且只能选择当前仍未满额且允许选题的课题</t>
+  </si>
+  <si>
+    <t>鲍溶</t>
+  </si>
+  <si>
+    <t>各阶段材料提交率统计（按时提交、逾期提交、未提交）；各阶段审核通过率统计；学生进展阶段分布统计</t>
+  </si>
+  <si>
+    <t>【性能需求】：
+普通响应类 响应时间 ≤ 3 秒；文件上传下载响应时间 ≤ 30 秒
+【安全需求】：
+1. 操作权限：只有学生本人才能查看和操作自己的进展信息；指导教师和教科办可查看所负责学生的进展状态并填写反馈意见
+2. 数据权限：学生只能浏览本人的进展信息和材料；系统需对上传文件进行病毒扫描
+3. 通信安全：材料上传下载需采用加密传输</t>
+  </si>
+  <si>
+    <t>是否按时提交各阶段材料；各阶段材料审核通过率；系统能否准确反映实时进展状态。</t>
+  </si>
+  <si>
+    <t>&lt;功能项：学生进展管理&gt;、&lt;学生基本信息&gt;、&lt;课题基本信息&gt;、&lt;各阶段状态（是否到达、提交状态、审核结果）&gt;、&lt;教师/答辩组反馈意见&gt;、&lt;材料提交时间&gt;、&lt;审核时间&gt;</t>
+  </si>
+  <si>
+    <t>&lt;学生学号&gt;、&lt;课题编号&gt;、&lt;阶段类型（开题/中期/结项）&gt;、&lt;提交材料文件&gt;、&lt;提交时间&gt;等</t>
+  </si>
+  <si>
+    <t>1. 系统自动检测当前时间与各阶段时间节点，控制材料提交功能的可用性
+2. 每个阶段材料只能提交一次，除非审核被退回需重新提交
+3. 材料提交后，在审核完成前不允许修改，审核退回后方可重新提交
+4. 学生只能查看本人各阶段的反馈意见，不能查看其他学生的进展信息
+5. 流程图状态由系统根据时间节点和审核结果自动更新，学生无法手动修改
+6. 文件上传需限制格式和大小（如：≤50MB，支持doc、docx、pdf等格式）</t>
+  </si>
+  <si>
+    <t>1. 〖材料提交〗操作成功完成，提示“××阶段材料已成功提交”
+2. 〖材料下载〗操作成功完成，提示“材料已开始下载”
+3. 〖材料提交〗操作失败（未到提交时间），提示“未到××阶段材料提交时间”
+4. 〖材料提交〗操作失败（已过截止时间），提示“××阶段材料提交已截止”
+5. 〖材料提交〗操作失败（文件格式不符），提示“文件格式不支持，请重新选择”
+6. 〖材料提交〗操作失败（文件过大），提示“文件大小超出限制，请压缩后重新上传”
+7. 〖材料下载〗操作失败（无提交记录），提示“暂无已提交材料可下载”
+8. 状态更新提示：“××阶段状态已更新，请及时查看”</t>
+  </si>
+  <si>
+    <t>1. 提供材料提交历史记录查看，包括提交时间、审核状态变化时间等。
+2. 支持各阶段反馈意见的导出功能（WORD、PDF等格式）。
+3. 提供阶段时间节点提醒功能，在阶段开始前和截止前向学生发送提醒。</t>
+  </si>
+  <si>
+    <t>1. 页面初始化，显示学生基本信息（学号、姓名、所属专业等）和已确认课题信息（课题名称、指导教师、课题类型等）。
+2. 展示毕业设计进展流程图，动态标注当前所处阶段（选题、开题报告、中期答辩、结项答辩）及完成状态。
+3. 分区域显示开题报告、中期答辩、结项答辩三个阶段的详细信息，包括：是否到达该阶段、材料提交状态（未提交/已提交/已审核）、审核结果（通过/不通过/审核中）、教师或答辩组的反馈意见
+4. 在规定的提交时间段内，允许学生上传对应阶段材料（支持常见文件格式）。
+5. 允许学生下载已提交的材料副本。</t>
+  </si>
+  <si>
+    <t>学生已完成毕业设计选题并通过指导教师/教科办审核确认</t>
+  </si>
+  <si>
+    <t>学生在完成毕业设计选题并审核通过后，登录系统进入“学生进展管理”页面，查看个人毕业设计进展状态。系统展示选题信息、各阶段（开题报告、中期答辩、结项答辩）的进度、材料提交状态及反馈意见。学生可在规定时间段内提交或下载各阶段材料。</t>
+  </si>
+  <si>
+    <t>1. 学生只能管理本人已通过审核的毕业设计课题进展，未通过选题审核的学生无法使用本功能。
+2. 各阶段（开题报告、中期答辩、结项答辩）的材料提交必须在教科办规定的时间段内进行，超出时间不予受理。
+3. 每个阶段材料提交后，需等待指导教师或答辩组审核反馈，学生不能自行修改已提交的材料（除非被退回要求重提交）。
+4. 学生只能查看和操作当前阶段及已通过阶段的材料，不能提前提交后续阶段材料。
+5. 流程图实时显示进展状态，状态更新由系统根据时间节点和审核结果自动判断。
+6. 如阶段材料被退回，学生可在原规定时间段内重新提交修改后的材料。</t>
+  </si>
+  <si>
+    <t>教师评审进度统计（包括各阶段已评审人数、待评审人数、超期未评审情况等）；学生阶段完成率统计；各专业毕设进展对比分析</t>
+  </si>
+  <si>
+    <t>【性能需求】：
+普通响应类 响应时间 ≤ 2 秒
+【安全需求】：
+1. 操作权限：只有指导教师才能查看和操作本人学生的进展信息
+2. 数据权限：教师不能查看其他教师指导的学生信息；下载的材料文件需进行权限验证
+3. 日志记录：所有评审意见提交操作需记录操作日志，便于审计追踪</t>
+  </si>
+  <si>
+    <t>是否严格按照各阶段时间要求提交评审意见；是否完整记录所有评审过程；是否能实时准确反映学生毕设进展状态。</t>
+  </si>
+  <si>
+    <t>&lt;功能项：教师进展管理&gt;、&lt;教师基本信息&gt;、&lt;学生列表及基本信息&gt;、&lt;各阶段状态（开题报告、中期答辩、结项答辩）&gt;、&lt;材料下载链接&gt;、&lt;评审意见历史记录&gt;、&lt;流程图状态&gt;</t>
+  </si>
+  <si>
+    <t>&lt;教师工号&gt;、&lt;学生学号&gt;、&lt;学生姓名&gt;、&lt;所属专业&gt;、&lt;课题编号&gt;、&lt;课题名称&gt;、&lt;阶段类型&gt;、&lt;材料提交状态&gt;、&lt;材料文件路径&gt;、&lt;评审意见内容&gt;、&lt;评审意见提交时间&gt;等</t>
+  </si>
+  <si>
+    <t>1. 系统自动检测当前时间与各阶段时间窗口，仅在规定时间段内开放评审意见提交功能
+2. 必须验证学生已提交材料后才允许教师下载
+3. 每个阶段教师只能提交一次评审意见，系统记录提交状态防止重复提交
+4. 教师只能查看和操作本人指导的学生进展信息
+5. 流程图状态根据系统配置的时间节点和学生实际提交情况自动更新</t>
+  </si>
+  <si>
+    <t>1. 〖材料下载〗操作成功完成，提示“××阶段材料下载成功”
+2. 〖意见提交〗操作成功完成，提示“××阶段评审意见已成功提交”
+3. 〖意见提交〗操作失败（超出时间），提示“已超过××阶段评审时间，无法提交意见！”
+4. 〖意见提交〗操作失败（重复提交），提示“该阶段评审意见已提交，无法重复提交！”
+5. 〖材料下载〗操作失败（材料未提交），提示“学生尚未提交××阶段材料，无法下载！”
+6. 〖搜索无结果〗提示“未找到符合条件的学生”
+7. 〖导出成功〗提示“学生进展信息已成功导出到文件：……”</t>
+  </si>
+  <si>
+    <t>1. 通过顶部搜索框按学生学号、姓名进行模糊搜索
+2. 支持按学生专业、当前阶段状态对学生列表进行筛选
+3. 支持将学生进展情况导出为文件（WORD、EXCEL、PDF等），用于归档或汇报
+4. 流程图支持点击跳转到对应阶段详情区域</t>
+  </si>
+  <si>
+    <t>1. 页面初始化显示所有选择本人课题的学生列表，包含学生基本信息（学号、姓名、专业）
+2. 每个学生条目可展开显示详细的进展信息，包括：三个阶段流程图（开题报告→中期答辩→结项答辩）、各阶段状态显示（是否到达、材料提交状态、评审意见提交状态）
+3. 支持下载学生提交的各阶段材料（开题报告、中期答辩材料、结项答辩材料）
+4. 在各阶段规定时间内，可通过"提交意见"按钮提交评审意见
+5. 自动记录教师提交评审意见的时间</t>
+  </si>
+  <si>
+    <t>学生已完成课题选择并确认，各阶段时间节点已由教科办配置完成</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>教师在本功能中可查看选择了本人课题的学生毕业设计进展状态，通过可视化流程跟踪学生各阶段完成情况，下载学生提交的材料并提交评审意见，确保毕设过程规范有序。</t>
+  </si>
+  <si>
+    <t>1. 教师只能查看和管理已确认选择本人课题的学生进展信息
+2. 各阶段（开题报告、中期答辩、结项答辩）的评审意见提交必须在规定时间段内完成，超出时间不予受理
+3. 教师对每个阶段只能提交一次评审意见，提交后不可修改，如需修改需联系教科办处理
+4. 学生材料下载权限仅在该阶段材料提交后开放
+5. 流程图状态实时反映学生当前所处的毕设阶段
+6. 教科办可根据实际情况调整各阶段时间窗口，系统自动同步更新</t>
   </si>
 </sst>
 </file>
@@ -810,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -881,6 +1017,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -891,7 +1040,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -950,86 +1099,92 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,7 +1528,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1407,7 +1562,7 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="9"/>
@@ -1434,7 +1589,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="9"/>
@@ -1529,6 +1684,8 @@
     <hyperlink ref="B7" location="表_答辩组答辩过程管理" display="答辩组答辩过程管理" xr:uid="{EA56FBFF-1865-460C-9D80-6681951686B3}"/>
     <hyperlink ref="B5" location="表_教师选题管理" display="教师选题管理" xr:uid="{9B83E62A-97EE-4DA3-BB60-14FA991493DB}"/>
     <hyperlink ref="B8" location="表_教科办课题管理" display="教科办课题管理" xr:uid="{1CC904B5-6C1B-4080-A1AE-C215CD7946EC}"/>
+    <hyperlink ref="B3" location="表_学生进展管理" display="学生进展管理" xr:uid="{DD8BD9C8-B24E-4260-8242-1BF4F31BF25C}"/>
+    <hyperlink ref="B6" location="表_教师进展管理" display="教师进展管理" xr:uid="{08BF610E-53B9-492E-A379-1D09E11F77FF}"/>
   </hyperlinks>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
@@ -1539,7 +1696,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCA8D13-213D-4B02-BAF1-0986FDD6785D}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="50.9140625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="145" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="99" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="43" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="150.5" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="90" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8C5CCF-5FA5-4DC4-AC98-3F2C8DDDC1EB}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="50.9140625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="145" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="99" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="43" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="150.5" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="90" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890727C4-1477-433F-AD80-359ACAC52319}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
@@ -1548,26 +2197,26 @@
     <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
@@ -1578,11 +2227,11 @@
         <v>45981</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
@@ -1597,160 +2246,406 @@
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="115.5" customHeight="1">
+      <c r="B4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="57" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="99" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="98.5" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="43" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="C8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="41" customHeight="1">
+      <c r="A9" s="22"/>
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="150.5" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="C9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="146" customHeight="1">
+      <c r="A10" s="22"/>
       <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:10" ht="65" customHeight="1">
+      <c r="A11" s="22"/>
       <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="90" customHeight="1">
+      <c r="B14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665A72C-4FD6-4594-AA07-9A0C917AC882}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" ht="121" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="105" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" ht="66" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" ht="146" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="65" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1781,12 +2676,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890727C4-1477-433F-AD80-359ACAC52319}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781BEAB4-3A7D-4534-8370-3C7B60FE7103}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1794,28 +2689,28 @@
     <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="50.9140625" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -1824,13 +2719,13 @@
         <v>45981</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
@@ -1843,160 +2738,160 @@
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="57" customHeight="1">
+      <c r="B4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="145" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="98.5" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="99" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" ht="41" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="C8" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="22"/>
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="C9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="150.5" customHeight="1">
+      <c r="A10" s="22"/>
       <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A11" s="22"/>
       <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="C11" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" ht="44" customHeight="1">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1">
+      <c r="B14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="90" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2014,235 +2909,479 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8082CF-8FF2-4E0D-A89D-61E60BC40C3B}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="17">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" ht="57" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" ht="105" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" ht="66" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" ht="146" customHeight="1">
+      <c r="A10" s="46"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="65" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" ht="61" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" ht="78" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665A72C-4FD6-4594-AA07-9A0C917AC882}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8342AB7-A215-4703-9B77-A503A5539868}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" customWidth="1"/>
+    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="19">
-        <v>45981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="E2" s="13">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="19">
-        <v>45257</v>
+      <c r="E3" s="13">
+        <v>45988</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" ht="57" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.5" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" ht="105" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="B7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="99" customHeight="1">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" ht="66" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="43" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="150.65" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="C12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="C13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="90" customHeight="1">
+      <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="B15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2271,494 +3410,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8082CF-8FF2-4E0D-A89D-61E60BC40C3B}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="4.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="17">
-        <v>45981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="17">
-        <v>45988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" ht="57" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:10" ht="105" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:10" ht="66" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:10" ht="146" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="65" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8342AB7-A215-4703-9B77-A503A5539868}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="4.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="13">
-        <v>45988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="115.5" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="99" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="43" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="150.65" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:10" ht="85.5" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="61" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="90" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>